--- a/biology/Botanique/Hunteria/Hunteria.xlsx
+++ b/biology/Botanique/Hunteria/Hunteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hunteria est un genre de plantes à fleurs appartenant à la famille des Apocynaceae, décrit pour la première fois en 1824 par William Roxburgh[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hunteria est un genre de plantes à fleurs appartenant à la famille des Apocynaceae, décrit pour la première fois en 1824 par William Roxburgh. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017) :
 Hunteria ballayi Hua
 Hunteria camerunensis K.Schum. ex Hall. fil.
 Hunteria congolana Pichon
@@ -526,7 +540,7 @@
 Hunteria simii (Stapf) H. Huber
 Hunteria umbellata (K.Schum.) Hall. fil.
 Hunteria zeylanica (Retz.) Gardner ex Thwaites
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Hunteria ballayi Hua (1902)
 Hunteria camerunensis K.Schum. ex Hallier f. (1899)
 Hunteria congolana Pichon, Bol. Soc. Brot., sér. 2 (1953)
@@ -539,11 +553,11 @@
 Hunteria simii (Stapf) H.Huber (1962)
 Hunteria umbellata (K.Schum.) Hallier f. (1899)
 Hunteria zeylanica (Retz.) Gardner ex Thwaites (1860)
-Selon NCBI  (24 juillet 2017)[5] :
+Selon NCBI  (24 juillet 2017) :
 Hunteria eburnea
 Hunteria umbellata
 Hunteria zeylanica
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Hunteria ballayi Hua
 Hunteria camerunensis K.Schum. ex Hallier f.
 Hunteria congolana Pichon
@@ -556,7 +570,7 @@
 Hunteria simii (Stapf) H.Huber
 Hunteria umbellata (K.Schum.) Hallier f.
 Hunteria zeylanica (Retz.) Gardner ex Thwaites
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Hunteria africana K. Schum.
 Hunteria ambiens K. Schum.
 Hunteria atrovirens G. Don
